--- a/Documentation/Planning Uneed-IT.xlsx
+++ b/Documentation/Planning Uneed-IT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boedh\OneDrive\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\UNeedIT\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4517E37-AF9C-445C-B47D-FE70E4992CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDFE65E-A097-48D9-A4B5-35BE72385464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A72BAD3-A906-415D-96A2-EC0DD0930A8D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Week</t>
   </si>
@@ -53,9 +53,6 @@
     <t>27-05-2024/31-05-2024</t>
   </si>
   <si>
-    <t>Functioneel ontwerp, Wireframes, Use Case Diagram en Sitemap</t>
-  </si>
-  <si>
     <t>Werken aan Protype</t>
   </si>
   <si>
@@ -123,6 +120,12 @@
   </si>
   <si>
     <t>Testen en evalueren</t>
+  </si>
+  <si>
+    <t>Functioneel ontwerp, Wireframes, Use Case Diagram, Sitemap, Behoefteanalyse, Klassendiagram en ERD.</t>
+  </si>
+  <si>
+    <t>Werken aan Protype: Database opzetten, bronbestanden nakijken.</t>
   </si>
 </sst>
 </file>
@@ -467,6 +470,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
@@ -532,30 +559,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,6 +568,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFCEB6A"/>
       <color rgb="FFFC8004"/>
       <color rgb="FFFFCC00"/>
       <color rgb="FFFFFF66"/>
@@ -902,7 +906,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J8"/>
+      <selection activeCell="H5" sqref="H5:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,44 +925,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
+      <c r="A1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="18"/>
+      <c r="A2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -968,45 +972,45 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="7">
         <v>2</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>24</v>
+      <c r="F3" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="G3" s="6">
         <v>3</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="17">
         <v>4</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="15">
+        <v>5</v>
+      </c>
+      <c r="K3" s="18">
+        <v>6</v>
+      </c>
+      <c r="L3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="37">
-        <v>5</v>
-      </c>
-      <c r="K3" s="40">
-        <v>6</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="38">
+      <c r="M3" s="16">
         <v>7</v>
       </c>
-      <c r="N3" s="36">
+      <c r="N3" s="14">
         <v>8</v>
       </c>
-      <c r="O3" s="35">
+      <c r="O3" s="13">
         <v>9</v>
       </c>
-      <c r="P3" s="41">
+      <c r="P3" s="19">
         <v>10</v>
       </c>
     </row>
@@ -1015,146 +1019,141 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="D4" s="22"/>
       <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="22"/>
+      <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="P4" s="42" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="41" t="s">
         <v>8</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
     </row>
     <row r="7" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
     </row>
     <row r="8" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="I3:I8"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="L3:L8"/>
-    <mergeCell ref="A2:P2"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="A5:A8"/>
@@ -1168,6 +1167,11 @@
     <mergeCell ref="N5:N8"/>
     <mergeCell ref="O5:O8"/>
     <mergeCell ref="P5:P8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="I3:I8"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="L3:L8"/>
+    <mergeCell ref="A2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
